--- a/тест-кейсы  (1).xlsx
+++ b/тест-кейсы  (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanzaharov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F68F6-02AB-9243-8FEB-BC75587813A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08611170-B743-6E4A-A8D4-7694180D7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C14F46B4-B650-0A47-A7D3-BBDD750AF3B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="111">
   <si>
     <t>Заголовок </t>
   </si>
@@ -334,21 +334,9 @@
     <t>Отображение товаров, соответствующих фильтру</t>
   </si>
   <si>
-    <t>Добавление товара в корзину</t>
-  </si>
-  <si>
     <t>На странице клиента выберите карточку товара.</t>
   </si>
   <si>
-    <t>Нажмите кнопку "Добавить в корзину" на карточке товара.</t>
-  </si>
-  <si>
-    <t>Убедитесь, что товар успешно добавлен в корзину.</t>
-  </si>
-  <si>
-    <t>Товар добавлен в корзину</t>
-  </si>
-  <si>
     <t>Проверка информации на карточке товара</t>
   </si>
   <si>
@@ -368,13 +356,25 @@
   </si>
   <si>
     <t>Переход между страницами работает корректно</t>
+  </si>
+  <si>
+    <t>статус</t>
+  </si>
+  <si>
+    <t>не пройден</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пройден</t>
+  </si>
+  <si>
+    <t>пройден</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,16 +448,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB7369"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -465,34 +491,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -505,19 +565,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,6 +685,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFB7369"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -833,24 +998,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D12B6E4-7DA0-7A43-99CA-E3AAAD63CB72}">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="125" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="26.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -859,13 +1024,15 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -875,932 +1042,1417 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="E7" s="17"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D9" s="9" t="s">
+      <c r="F8" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D10" s="9" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="E12" s="20"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>3</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D17" s="9" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="E17" s="17"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D19" s="9" t="s">
+      <c r="F18" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D20" s="9" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="E21" s="17"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>5</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="9" t="s">
+      <c r="F22" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D24" s="9" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D25" s="9" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <v>6</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D28" s="9" t="s">
+      <c r="F27" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D29" s="9" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D30" s="9" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D31" s="9" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="E31" s="17"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
         <v>7</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D33" s="9" t="s">
+      <c r="F32" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D34" s="9" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D35" s="9" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="46" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>8</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D37" s="9" t="s">
+      <c r="F36" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D38" s="9" t="s">
+      <c r="E37" s="22"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D39" s="9" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="E39" s="23"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>9</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D41" s="9" t="s">
+      <c r="F40" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D42" s="9" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D43" s="9" t="s">
+      <c r="E42" s="22"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="E43" s="23"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
         <v>10</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D45" s="9" t="s">
+      <c r="F44" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D46" s="9" t="s">
+      <c r="E45" s="25"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D47" s="9" t="s">
+      <c r="E46" s="25"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="E47" s="26"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
         <v>11</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D49" s="9" t="s">
+      <c r="F48" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D50" s="9" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D51" s="9" t="s">
+      <c r="E50" s="25"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="E51" s="26"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
         <v>12</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D53" s="9" t="s">
+      <c r="F52" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D54" s="9" t="s">
+      <c r="E53" s="25"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D55" s="9" t="s">
+      <c r="E54" s="25"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="E55" s="26"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>13</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D58" s="9" t="s">
+      <c r="F57" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="E58" s="17"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
         <v>14</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D60" s="9" t="s">
+      <c r="F59" s="43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+      <c r="E60" s="26"/>
+      <c r="F60" s="43"/>
+    </row>
+    <row r="61" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
         <v>15</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="9" t="s">
+      <c r="D61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D62" s="9" t="s">
+      <c r="F61" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+      <c r="E62" s="26"/>
+      <c r="F62" s="44"/>
+    </row>
+    <row r="63" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
         <v>16</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D64" s="9" t="s">
+      <c r="F63" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D65" s="9" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
+      <c r="E65" s="17"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18">
         <v>17</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="14" t="s">
+      <c r="D66" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D67" s="9" t="s">
+      <c r="F66" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+      <c r="E67" s="28"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18">
         <v>18</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="D69" s="9" t="s">
+      <c r="F68" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D70" s="9" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
+      <c r="E70" s="17"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18">
         <v>19</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="D72" s="9" t="s">
+      <c r="F71" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D73" s="9" t="s">
+      <c r="E72" s="16"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="12">
+      <c r="E73" s="17"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="18">
         <v>20</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D75" s="9" t="s">
+      <c r="F74" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D76" s="9" t="s">
+      <c r="E75" s="19"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="13" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
+      <c r="E76" s="20"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="12">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
         <v>21</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D79" s="9" t="s">
+      <c r="F78" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D80" s="9" t="s">
+      <c r="E79" s="16"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D81" s="9" t="s">
+      <c r="E80" s="16"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="20"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="12">
+      <c r="E81" s="17"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18">
         <v>22</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="D82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D83" s="9" t="s">
+      <c r="F82" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D84" s="9" t="s">
+      <c r="E83" s="16"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A84" s="20"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="12">
+      <c r="E84" s="17"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18">
         <v>23</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="D85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="D86" s="9" t="s">
+      <c r="F85" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D87" s="9" t="s">
+      <c r="E86" s="16"/>
+      <c r="F86" s="10"/>
+    </row>
+    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="20"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
+      <c r="E87" s="17"/>
+      <c r="F87" s="10"/>
+    </row>
+    <row r="88" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18">
         <v>24</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E89" s="16"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="90" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18">
+        <v>25</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D89" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D90" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D91" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="12">
-        <v>25</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="D91" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C92" t="s">
-        <v>86</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="D93" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="D94" s="9" t="s">
+      <c r="E92" s="16"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
-        <v>26</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="D96" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="D97" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="10"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="31"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="2"/>
+      <c r="B98" s="31"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="9"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D100" s="9"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="13"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="2"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D103" s="9"/>
+      <c r="B103" s="32"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D104" s="9"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D105" s="9"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D106" s="9"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="7"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="2"/>
+      <c r="B107" s="32"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D108" s="9"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D109" s="9"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D110" s="9"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="7"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="2"/>
+      <c r="B111" s="32"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D112" s="9"/>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D113" s="9"/>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D114" s="9"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="7"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="2"/>
+      <c r="B115" s="32"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D116" s="9"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D117" s="9"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D118" s="9"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="7"/>
-      <c r="D119" s="9"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D120" s="9"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D121" s="9"/>
+      <c r="B121" s="32"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D122" s="9"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D123" s="9"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="7"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D128" s="9"/>
+      <c r="D124" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A101:E101"/>
+  <mergeCells count="130">
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A97:E97"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A77:E77"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/тест-кейсы  (1).xlsx
+++ b/тест-кейсы  (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanzaharov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08611170-B743-6E4A-A8D4-7694180D7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FD1CB8-0C07-EA4E-B8BA-0F43F0637976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C14F46B4-B650-0A47-A7D3-BBDD750AF3B6}"/>
   </bookViews>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D12B6E4-7DA0-7A43-99CA-E3AAAD63CB72}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:C93"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,8 +1727,8 @@
       <c r="E57" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>108</v>
+      <c r="F57" s="43" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>58</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="10"/>
+      <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18">

--- a/тест-кейсы  (1).xlsx
+++ b/тест-кейсы  (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romanzaharov/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DEFC67-E34A-AA4A-8C6B-F72A5C2747EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A742DD14-3B1E-E643-87FE-7840BBA9C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C14F46B4-B650-0A47-A7D3-BBDD750AF3B6}"/>
   </bookViews>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D12B6E4-7DA0-7A43-99CA-E3AAAD63CB72}">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91:F93"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="R92" sqref="R92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,11 +1321,11 @@
       <c r="E22" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F22" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="26"/>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="31"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
@@ -1343,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="31"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
@@ -1381,8 +1381,8 @@
       <c r="E27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>108</v>
+      <c r="F27" s="38" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1393,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="31"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
@@ -1403,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
@@ -1413,7 +1413,7 @@
         <v>34</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="E31" s="27"/>
-      <c r="F31" s="31"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
@@ -1751,8 +1751,8 @@
       <c r="E57" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F57" s="38" t="s">
-        <v>109</v>
+      <c r="F57" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>58</v>
       </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="38"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
@@ -1911,8 +1911,8 @@
       <c r="E68" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="31" t="s">
-        <v>108</v>
+      <c r="F68" s="45" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -1923,7 +1923,7 @@
         <v>74</v>
       </c>
       <c r="E69" s="26"/>
-      <c r="F69" s="31"/>
+      <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
@@ -1933,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="E70" s="27"/>
-      <c r="F70" s="31"/>
+      <c r="F70" s="47"/>
     </row>
     <row r="71" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
@@ -1991,8 +1991,8 @@
       <c r="E74" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="31" t="s">
-        <v>108</v>
+      <c r="F74" s="45" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -2003,7 +2003,7 @@
         <v>82</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="31"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
@@ -2013,7 +2013,7 @@
         <v>83</v>
       </c>
       <c r="E76" s="18"/>
-      <c r="F76" s="31"/>
+      <c r="F76" s="47"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="42" t="s">
